--- a/data/trans_camb/P18_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-14,24</t>
+          <t>14,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,94</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,48</t>
+          <t>10,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,95</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,03</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,48</t>
+          <t>17,5</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,55</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-16,14</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-10,94</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-10,92</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>15,83</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,66</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10,47</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9,19</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,91; -8,24</t>
+          <t>8,44; 20,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,49; -4,43</t>
+          <t>3,95; 15,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,83; -4,17</t>
+          <t>5,05; 16,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 5,81</t>
+          <t>-3,64; 10,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,94; -13,0</t>
+          <t>-10,43; 3,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,15; -6,97</t>
+          <t>-5,56; 5,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -6,42</t>
+          <t>12,92; 23,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -2,0</t>
+          <t>6,83; 16,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,03; -11,94</t>
+          <t>5,49; 15,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-14,91; -7,0</t>
+          <t>8,6; 19,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -7,04</t>
+          <t>-12,01; -1,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; -0,53</t>
+          <t>-5,73; 4,8</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 19,56</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 14,59</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 14,46</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 13,35</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; -0,36</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 3,64</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-35,48%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-24,76%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,12%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-28,84%</t>
+          <t>-6,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,32%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,44%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-31,25%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-21,17%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-21,13%</t>
+          <t>-13,1%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-8,16%</t>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>32,75%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>22,05%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21,67%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>19,01%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-9,13%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-0,54%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,21; -21,75</t>
+          <t>13,43; 35,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,22; -11,84</t>
+          <t>6,38; 27,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,06; -11,18</t>
+          <t>8,23; 29,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 15,85</t>
+          <t>-5,52; 18,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,67; -21,51</t>
+          <t>-15,31; 5,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,58; -11,49</t>
+          <t>-8,84; 8,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,68; -10,74</t>
+          <t>32,03; 66,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,21; -3,34</t>
+          <t>16,84; 47,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,77; -24,18</t>
+          <t>13,29; 43,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-28,07; -14,11</t>
+          <t>21,54; 55,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-27,77; -14,31</t>
+          <t>-21,62; -2,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -1,01</t>
+          <t>-11,9; 11,47</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23,11; 42,51</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 31,49</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,83; 31,46</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 28,63</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-15,74; -0,89</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 7,2</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,84</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,32</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,04</t>
+          <t>16,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,64</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>13,49</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,34</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,57</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,12</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-5,9</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 1,3</t>
+          <t>0,61; 14,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 6,99</t>
+          <t>-7,26; 5,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 7,82</t>
+          <t>-7,03; 6,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 8,02</t>
+          <t>-0,65; 13,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,37; -12,13</t>
+          <t>-15,31; 0,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,94; -5,75</t>
+          <t>-10,93; 6,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,35; -6,6</t>
+          <t>10,01; 22,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 0,7</t>
+          <t>4,9; 16,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,8; -7,42</t>
+          <t>5,0; 17,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; -0,24</t>
+          <t>6,98; 19,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-9,99; -0,97</t>
+          <t>-13,54; 3,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 1,46</t>
+          <t>-8,28; 10,94</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 16,78</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 9,81</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 10,23</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 14,93</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; -0,2</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 7,31</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,14%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-29,69%</t>
+          <t>-10,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,84%</t>
+          <t>-2,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,04%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,26%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-26,64%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-11,81%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>-9,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23,48%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-9,4%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-0,35%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 4,69</t>
+          <t>1,38; 23,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 21,91</t>
+          <t>-10,69; 9,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 24,37</t>
+          <t>-10,23; 10,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 25,18</t>
+          <t>-0,91; 20,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -21,06</t>
+          <t>-20,45; 0,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,08; -10,14</t>
+          <t>-15,3; 11,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,12; -11,19</t>
+          <t>23,77; 60,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 1,23</t>
+          <t>11,35; 45,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,59; -17,1</t>
+          <t>11,61; 46,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-19,51; -0,61</t>
+          <t>16,77; 53,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-20,2; -2,17</t>
+          <t>-24,63; 6,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 3,17</t>
+          <t>-15,82; 26,69</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 33,66</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 19,72</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 20,11</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 29,78</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-18,24; -0,5</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-11,68; 13,75</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-20,39</t>
+          <t>18,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-26,68</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-14,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,99</t>
+          <t>25,93</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>14,05</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,15</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,78</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-23,45</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-12,13</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-6,99</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>22,19</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11,81</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12,61</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-32,34; -8,31</t>
+          <t>7,33; 31,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 1,86</t>
+          <t>-2,44; 21,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 9,32</t>
+          <t>-11,98; 15,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-17,32; 12,93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-37,7; -15,35</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,17; -3,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,77; -0,46</t>
+          <t>15,17; 37,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>3,75; 23,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 19,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,5; 38,09</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-31,85; -14,92</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-20,53; -4,27</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-15,61; 2,41</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13,46; 30,29</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 20,15</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 15,1</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 21,38</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-52,0%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,14%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,08%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-2,15%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-40,75%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-15,26%</t>
+          <t>75,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>40,71%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>77,59%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-44,89%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-23,23%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-13,37%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>46,45%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>13,79%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>26,39%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,34; -25,35</t>
+          <t>10,38; 58,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,99; 6,53</t>
+          <t>-3,73; 39,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 31,5</t>
+          <t>-17,61; 28,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-27,08; 23,11</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-55,08; -24,79</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,29; -5,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,61; -0,77</t>
+          <t>37,43; 131,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>8,74; 84,13</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 68,15</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>37,2; 132,86</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-56,55; -31,37</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-36,45; -8,5</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-27,78; 5,22</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>26,09; 70,71</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 45,37</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 34,62</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 49,43</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,18</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,89</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,02</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,5</t>
+          <t>18,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-7,51</t>
+          <t>11,69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-15,6</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-8,97</t>
+          <t>15,18</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>15,19</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>8,66</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>9,94</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-6,57</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,41; -7,88</t>
+          <t>7,96; 16,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -1,77</t>
+          <t>1,47; 9,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -1,11</t>
+          <t>1,06; 9,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,64</t>
+          <t>-0,78; 8,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,75; -15,36</t>
+          <t>-10,54; -0,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -8,5</t>
+          <t>-5,01; 4,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,42; -7,91</t>
+          <t>14,28; 21,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,29; -3,21</t>
+          <t>8,28; 14,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,5; -12,56</t>
+          <t>6,97; 14,14</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-11,62; -6,25</t>
+          <t>11,11; 18,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -5,27</t>
+          <t>-11,76; -3,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -0,77</t>
+          <t>-4,92; 4,3</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 17,99</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 11,51</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 10,83</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 13,28</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; -3,23</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 3,02</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,26%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,07%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-30,58%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,45%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,62%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-31,17%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-17,92%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-16,95%</t>
+          <t>-14,47%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>-0,1%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>30,41%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-10,98%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-0,47%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,85; -21,79</t>
+          <t>12,4; 27,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,5; -4,7</t>
+          <t>2,02; 16,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,42; -3,16</t>
+          <t>1,73; 15,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 16,47</t>
+          <t>-1,22; 14,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,0; -25,43</t>
+          <t>-15,25; -0,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,63; -14,29</t>
+          <t>-7,81; 8,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,16; -12,96</t>
+          <t>35,06; 59,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,07; -5,29</t>
+          <t>20,87; 40,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,18; -26,06</t>
+          <t>17,89; 39,64</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -12,87</t>
+          <t>27,68; 51,71</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-21,69; -10,97</t>
+          <t>-21,2; -6,91</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -1,27</t>
+          <t>-10,14; 9,84</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>24,26; 37,31</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>11,66; 23,77</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>10,49; 22,46</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>13,34; 27,36</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; -5,62</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; 5,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
